--- a/eMBT/eMBT happy path new user bol.com/Test Design (2).xlsx
+++ b/eMBT/eMBT happy path new user bol.com/Test Design (2).xlsx
@@ -1,14 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Testingenvironment\TestProject1\eMBT\eMBT happy path new user bol.com\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05917DBF-C052-4C10-A3AE-D2A7466185C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-28920" yWindow="3810" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Test Design" sheetId="1" r:id="rId4"/>
+    <sheet name="Test Design" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mg2HYUAAPxRzMQfR6fFus7SqBjXTA=="/>
@@ -18,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="59">
-  <si>
-    <t>Project - Project Rabobank</t>
-  </si>
-  <si>
-    <t>Test Design - Inloggen</t>
-  </si>
-  <si>
-    <t>Date - 2020-03-30</t>
-  </si>
-  <si>
-    <t>Test Coverage - 100% (STATEMENT)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="54">
   <si>
     <t>TC</t>
   </si>
@@ -45,9 +40,6 @@
   </si>
   <si>
     <t>Preconditions</t>
-  </si>
-  <si>
-    <t>Test Data</t>
   </si>
   <si>
     <t>Expected Result</t>
@@ -202,51 +194,50 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="0"/>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="24.0"/>
+      <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Rubik"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -256,7 +247,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -284,12 +275,19 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -304,53 +302,63 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -361,11 +369,17 @@
     <xdr:ext cx="2181225" cy="542925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="2" name="image1.png" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -383,7 +397,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -573,34 +587,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="10" max="10" customWidth="true" width="25.75" collapsed="true"/>
-    <col min="1" max="1" customWidth="true" width="3.88" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="6.37890625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="19.25" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="4.37890625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="36.0" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="29.87890625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="38.5" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="29.12890625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="25.75" collapsed="false"/>
-    <col min="11" max="28" customWidth="true" width="6.75" collapsed="false"/>
+    <col min="1" max="1" width="3.9140625" customWidth="1"/>
+    <col min="2" max="2" width="6.4140625" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="4.4140625" customWidth="1"/>
+    <col min="5" max="5" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" customWidth="1"/>
+    <col min="9" max="9" width="25.75" customWidth="1"/>
+    <col min="10" max="10" width="25.75" customWidth="1" collapsed="1"/>
+    <col min="11" max="28" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="9.75" customHeight="1">
+    <row r="1" spans="1:28" ht="9.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -624,7 +639,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" ht="64.5" customHeight="1">
+    <row r="2" spans="1:28" ht="64.5" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -648,10 +663,10 @@
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:28" ht="12.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -674,10 +689,10 @@
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:28" ht="12.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -700,10 +715,10 @@
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:28" ht="12.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
@@ -726,7 +741,7 @@
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:28" ht="12.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="8"/>
       <c r="C6" s="4"/>
@@ -750,10 +765,10 @@
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:28" ht="12.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -776,7 +791,7 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:28" ht="12.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -800,34 +815,34 @@
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
     </row>
-    <row r="9" ht="20.25" customHeight="1">
+    <row r="9" spans="1:28" ht="20.25" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="G9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="I9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>6</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>11</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -848,449 +863,449 @@
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10">
-      <c r="B10" t="s" s="13">
+    <row r="10" spans="1:28" ht="14">
+      <c r="B10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:28" ht="14">
+      <c r="B11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s" s="13">
+      <c r="G11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s" s="13">
+      <c r="H11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:28" ht="14">
+      <c r="B12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:28" ht="14">
+      <c r="B13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:28" ht="14">
+      <c r="B14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:28" ht="14">
+      <c r="B15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:28" ht="14">
+      <c r="B16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s" s="13">
+      <c r="G16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:28" ht="14">
+      <c r="B17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F10" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11">
-      <c r="B11" t="s" s="13">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s" s="13">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s" s="13">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s" s="13">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s" s="13">
+      <c r="E17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:28" ht="14">
+      <c r="B18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H11" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12">
-      <c r="B12" t="s" s="13">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s" s="13">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s" s="13">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s" s="13">
+      <c r="E18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:28" ht="28">
+      <c r="B19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G12" t="s" s="13">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="I12" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13">
-      <c r="B13" t="s" s="13">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s" s="13">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s" s="13">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s" s="13">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s" s="13">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s" s="13">
+      <c r="E19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:28" ht="14">
+      <c r="B20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H13" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14">
-      <c r="B14" t="s" s="13">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s" s="13">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s" s="13">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s" s="13">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s" s="13">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s" s="13">
-        <v>35</v>
-      </c>
-      <c r="H14" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15">
-      <c r="B15" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s" s="14">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s" s="14">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s" s="14">
+      <c r="D20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:28" ht="14">
+      <c r="B21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:28" ht="14">
+      <c r="B22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:28" ht="14">
+      <c r="B23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:28" ht="14">
+      <c r="B24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="H15" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="I15" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16">
-      <c r="B16" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s" s="14">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s" s="14">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s" s="14">
-        <v>24</v>
-      </c>
-      <c r="H16" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="I16" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17">
-      <c r="B17" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s" s="14">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="E17" t="s" s="14">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s" s="14">
-        <v>38</v>
-      </c>
-      <c r="G17" t="s" s="14">
-        <v>39</v>
-      </c>
-      <c r="H17" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="I17" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18">
-      <c r="B18" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s" s="14">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s" s="14">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s" s="14">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s" s="14">
-        <v>38</v>
-      </c>
-      <c r="G18" t="s" s="14">
-        <v>41</v>
-      </c>
-      <c r="H18" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="I18" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19">
-      <c r="B19" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s" s="14">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s" s="14">
-        <v>32</v>
-      </c>
-      <c r="E19" t="s" s="14">
-        <v>42</v>
-      </c>
-      <c r="F19" t="s" s="14">
-        <v>43</v>
-      </c>
-      <c r="G19" t="s" s="14">
-        <v>44</v>
-      </c>
-      <c r="H19" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="I19" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20">
-      <c r="B20" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s" s="14">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s" s="14">
-        <v>45</v>
-      </c>
-      <c r="E20" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="H20" t="s" s="14">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s" s="14">
-        <v>47</v>
-      </c>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21">
-      <c r="B21" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s" s="14">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s" s="14">
-        <v>48</v>
-      </c>
-      <c r="E21" t="s" s="14">
-        <v>49</v>
-      </c>
-      <c r="F21" t="s" s="14">
-        <v>50</v>
-      </c>
-      <c r="G21" t="s" s="14">
+      <c r="C24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:28" ht="14">
+      <c r="B25" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H21" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="I21" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22">
-      <c r="B22" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s" s="14">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s" s="14">
+      <c r="F25" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E22" t="s" s="14">
+      <c r="G25" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F22" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="H22" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="I22" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23">
-      <c r="B23" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s" s="14">
-        <v>36</v>
-      </c>
-      <c r="D23" t="s" s="14">
-        <v>54</v>
-      </c>
-      <c r="E23" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="H23" t="s" s="14">
-        <v>55</v>
-      </c>
-      <c r="I23" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24">
-      <c r="B24" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s" s="13">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s" s="13">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s" s="13">
-        <v>20</v>
-      </c>
-      <c r="F24" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="H24" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="I24" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="J24" s="13"/>
-    </row>
-    <row r="25">
-      <c r="B25" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s" s="13">
-        <v>21</v>
-      </c>
-      <c r="D25" t="s" s="13">
-        <v>21</v>
-      </c>
-      <c r="E25" t="s" s="13">
-        <v>56</v>
-      </c>
-      <c r="F25" t="s" s="13">
-        <v>57</v>
-      </c>
-      <c r="G25" t="s" s="13">
-        <v>58</v>
-      </c>
-      <c r="H25" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="I25" t="s" s="13">
-        <v>12</v>
+      <c r="H25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:28" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1310,17 +1325,17 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:28" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -1340,17 +1355,17 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -1370,17 +1385,17 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:28" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -1400,17 +1415,17 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:28" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -1430,17 +1445,17 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:28" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -1460,17 +1475,17 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:28" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -1490,17 +1505,17 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:28" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -1520,17 +1535,17 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:28" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -1550,17 +1565,17 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:28" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -1580,17 +1595,17 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:28" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -1610,17 +1625,17 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:28" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -1640,17 +1655,17 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:28" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -1670,17 +1685,17 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:28" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -1700,17 +1715,17 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:28" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -1730,17 +1745,17 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:28" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -1760,17 +1775,17 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:28" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -1790,17 +1805,17 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" spans="1:28" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -1820,7 +1835,7 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" spans="1:28" ht="12.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1850,7 +1865,7 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" spans="1:28" ht="12.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1880,7 +1895,7 @@
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" spans="1:28" ht="12.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1910,7 +1925,7 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" spans="1:28" ht="12.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1940,7 +1955,7 @@
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" spans="1:28" ht="12.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1970,7 +1985,7 @@
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" spans="1:28" ht="12.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2000,7 +2015,7 @@
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" spans="1:28" ht="12.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2030,7 +2045,7 @@
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" spans="1:28" ht="12.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2060,7 +2075,7 @@
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" spans="1:28" ht="12.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2090,7 +2105,7 @@
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" spans="1:28" ht="12.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2120,7 +2135,7 @@
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" spans="1:28" ht="12.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2150,7 +2165,7 @@
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" spans="1:28" ht="12.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2180,7 +2195,7 @@
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" spans="1:28" ht="12.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2210,7 +2225,7 @@
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" spans="1:28" ht="12.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2240,7 +2255,7 @@
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" spans="1:28" ht="12.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2270,7 +2285,7 @@
       <c r="AA58" s="4"/>
       <c r="AB58" s="4"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" spans="1:28" ht="12.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2300,7 +2315,7 @@
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" spans="1:28" ht="12.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2330,7 +2345,7 @@
       <c r="AA60" s="4"/>
       <c r="AB60" s="4"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" spans="1:28" ht="12.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2360,7 +2375,7 @@
       <c r="AA61" s="4"/>
       <c r="AB61" s="4"/>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" spans="1:28" ht="12.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2390,7 +2405,7 @@
       <c r="AA62" s="4"/>
       <c r="AB62" s="4"/>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" spans="1:28" ht="12.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2420,7 +2435,7 @@
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="64" spans="1:28" ht="12.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2450,7 +2465,7 @@
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" spans="1:28" ht="12.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2480,7 +2495,7 @@
       <c r="AA65" s="4"/>
       <c r="AB65" s="4"/>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" spans="1:28" ht="12.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2510,7 +2525,7 @@
       <c r="AA66" s="4"/>
       <c r="AB66" s="4"/>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
+    <row r="67" spans="1:28" ht="12.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2540,7 +2555,7 @@
       <c r="AA67" s="4"/>
       <c r="AB67" s="4"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" spans="1:28" ht="12.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2570,7 +2585,7 @@
       <c r="AA68" s="4"/>
       <c r="AB68" s="4"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
+    <row r="69" spans="1:28" ht="12.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2600,7 +2615,7 @@
       <c r="AA69" s="4"/>
       <c r="AB69" s="4"/>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
+    <row r="70" spans="1:28" ht="12.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2630,7 +2645,7 @@
       <c r="AA70" s="4"/>
       <c r="AB70" s="4"/>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" spans="1:28" ht="12.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2660,7 +2675,7 @@
       <c r="AA71" s="4"/>
       <c r="AB71" s="4"/>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
+    <row r="72" spans="1:28" ht="12.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2690,7 +2705,7 @@
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" spans="1:28" ht="12.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2720,7 +2735,7 @@
       <c r="AA73" s="4"/>
       <c r="AB73" s="4"/>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" spans="1:28" ht="12.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2750,7 +2765,7 @@
       <c r="AA74" s="4"/>
       <c r="AB74" s="4"/>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" spans="1:28" ht="12.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2780,7 +2795,7 @@
       <c r="AA75" s="4"/>
       <c r="AB75" s="4"/>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" spans="1:28" ht="12.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2810,7 +2825,7 @@
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" spans="1:28" ht="12.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2840,7 +2855,7 @@
       <c r="AA77" s="4"/>
       <c r="AB77" s="4"/>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" spans="1:28" ht="12.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2870,7 +2885,7 @@
       <c r="AA78" s="4"/>
       <c r="AB78" s="4"/>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
+    <row r="79" spans="1:28" ht="12.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2900,7 +2915,7 @@
       <c r="AA79" s="4"/>
       <c r="AB79" s="4"/>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
+    <row r="80" spans="1:28" ht="12.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2930,7 +2945,7 @@
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
+    <row r="81" spans="1:28" ht="12.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2960,7 +2975,7 @@
       <c r="AA81" s="4"/>
       <c r="AB81" s="4"/>
     </row>
-    <row r="82" ht="12.75" customHeight="1">
+    <row r="82" spans="1:28" ht="12.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2990,7 +3005,7 @@
       <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
     </row>
-    <row r="83" ht="12.75" customHeight="1">
+    <row r="83" spans="1:28" ht="12.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -3020,7 +3035,7 @@
       <c r="AA83" s="4"/>
       <c r="AB83" s="4"/>
     </row>
-    <row r="84" ht="12.75" customHeight="1">
+    <row r="84" spans="1:28" ht="12.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -3050,7 +3065,7 @@
       <c r="AA84" s="4"/>
       <c r="AB84" s="4"/>
     </row>
-    <row r="85" ht="12.75" customHeight="1">
+    <row r="85" spans="1:28" ht="12.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -3080,7 +3095,7 @@
       <c r="AA85" s="4"/>
       <c r="AB85" s="4"/>
     </row>
-    <row r="86" ht="12.75" customHeight="1">
+    <row r="86" spans="1:28" ht="12.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -3110,7 +3125,7 @@
       <c r="AA86" s="4"/>
       <c r="AB86" s="4"/>
     </row>
-    <row r="87" ht="12.75" customHeight="1">
+    <row r="87" spans="1:28" ht="12.75" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -3140,7 +3155,7 @@
       <c r="AA87" s="4"/>
       <c r="AB87" s="4"/>
     </row>
-    <row r="88" ht="12.75" customHeight="1">
+    <row r="88" spans="1:28" ht="12.75" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3170,7 +3185,7 @@
       <c r="AA88" s="4"/>
       <c r="AB88" s="4"/>
     </row>
-    <row r="89" ht="12.75" customHeight="1">
+    <row r="89" spans="1:28" ht="12.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -3200,7 +3215,7 @@
       <c r="AA89" s="4"/>
       <c r="AB89" s="4"/>
     </row>
-    <row r="90" ht="12.75" customHeight="1">
+    <row r="90" spans="1:28" ht="12.75" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -3230,7 +3245,7 @@
       <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
     </row>
-    <row r="91" ht="12.75" customHeight="1">
+    <row r="91" spans="1:28" ht="12.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -3260,7 +3275,7 @@
       <c r="AA91" s="4"/>
       <c r="AB91" s="4"/>
     </row>
-    <row r="92" ht="12.75" customHeight="1">
+    <row r="92" spans="1:28" ht="12.75" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -3290,7 +3305,7 @@
       <c r="AA92" s="4"/>
       <c r="AB92" s="4"/>
     </row>
-    <row r="93" ht="12.75" customHeight="1">
+    <row r="93" spans="1:28" ht="12.75" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -3320,7 +3335,7 @@
       <c r="AA93" s="4"/>
       <c r="AB93" s="4"/>
     </row>
-    <row r="94" ht="12.75" customHeight="1">
+    <row r="94" spans="1:28" ht="12.75" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -3350,7 +3365,7 @@
       <c r="AA94" s="4"/>
       <c r="AB94" s="4"/>
     </row>
-    <row r="95" ht="12.75" customHeight="1">
+    <row r="95" spans="1:28" ht="12.75" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -3380,7 +3395,7 @@
       <c r="AA95" s="4"/>
       <c r="AB95" s="4"/>
     </row>
-    <row r="96" ht="12.75" customHeight="1">
+    <row r="96" spans="1:28" ht="12.75" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3410,7 +3425,7 @@
       <c r="AA96" s="4"/>
       <c r="AB96" s="4"/>
     </row>
-    <row r="97" ht="12.75" customHeight="1">
+    <row r="97" spans="1:28" ht="12.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -3440,7 +3455,7 @@
       <c r="AA97" s="4"/>
       <c r="AB97" s="4"/>
     </row>
-    <row r="98" ht="12.75" customHeight="1">
+    <row r="98" spans="1:28" ht="12.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3470,7 +3485,7 @@
       <c r="AA98" s="4"/>
       <c r="AB98" s="4"/>
     </row>
-    <row r="99" ht="12.75" customHeight="1">
+    <row r="99" spans="1:28" ht="12.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3500,7 +3515,7 @@
       <c r="AA99" s="4"/>
       <c r="AB99" s="4"/>
     </row>
-    <row r="100" ht="12.75" customHeight="1">
+    <row r="100" spans="1:28" ht="12.75" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -3530,7 +3545,7 @@
       <c r="AA100" s="4"/>
       <c r="AB100" s="4"/>
     </row>
-    <row r="101" ht="12.75" customHeight="1">
+    <row r="101" spans="1:28" ht="12.75" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -3560,7 +3575,7 @@
       <c r="AA101" s="4"/>
       <c r="AB101" s="4"/>
     </row>
-    <row r="102" ht="12.75" customHeight="1">
+    <row r="102" spans="1:28" ht="12.75" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -3590,7 +3605,7 @@
       <c r="AA102" s="4"/>
       <c r="AB102" s="4"/>
     </row>
-    <row r="103" ht="12.75" customHeight="1">
+    <row r="103" spans="1:28" ht="12.75" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -3620,7 +3635,7 @@
       <c r="AA103" s="4"/>
       <c r="AB103" s="4"/>
     </row>
-    <row r="104" ht="12.75" customHeight="1">
+    <row r="104" spans="1:28" ht="12.75" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -3650,7 +3665,7 @@
       <c r="AA104" s="4"/>
       <c r="AB104" s="4"/>
     </row>
-    <row r="105" ht="12.75" customHeight="1">
+    <row r="105" spans="1:28" ht="12.75" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -3680,7 +3695,7 @@
       <c r="AA105" s="4"/>
       <c r="AB105" s="4"/>
     </row>
-    <row r="106" ht="12.75" customHeight="1">
+    <row r="106" spans="1:28" ht="12.75" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -3710,7 +3725,7 @@
       <c r="AA106" s="4"/>
       <c r="AB106" s="4"/>
     </row>
-    <row r="107" ht="12.75" customHeight="1">
+    <row r="107" spans="1:28" ht="12.75" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -3740,7 +3755,7 @@
       <c r="AA107" s="4"/>
       <c r="AB107" s="4"/>
     </row>
-    <row r="108" ht="12.75" customHeight="1">
+    <row r="108" spans="1:28" ht="12.75" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -3770,7 +3785,7 @@
       <c r="AA108" s="4"/>
       <c r="AB108" s="4"/>
     </row>
-    <row r="109" ht="12.75" customHeight="1">
+    <row r="109" spans="1:28" ht="12.75" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -3800,7 +3815,7 @@
       <c r="AA109" s="4"/>
       <c r="AB109" s="4"/>
     </row>
-    <row r="110" ht="12.75" customHeight="1">
+    <row r="110" spans="1:28" ht="12.75" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -3830,7 +3845,7 @@
       <c r="AA110" s="4"/>
       <c r="AB110" s="4"/>
     </row>
-    <row r="111" ht="12.75" customHeight="1">
+    <row r="111" spans="1:28" ht="12.75" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -3860,7 +3875,7 @@
       <c r="AA111" s="4"/>
       <c r="AB111" s="4"/>
     </row>
-    <row r="112" ht="12.75" customHeight="1">
+    <row r="112" spans="1:28" ht="12.75" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -3890,7 +3905,7 @@
       <c r="AA112" s="4"/>
       <c r="AB112" s="4"/>
     </row>
-    <row r="113" ht="12.75" customHeight="1">
+    <row r="113" spans="1:28" ht="12.75" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -3920,7 +3935,7 @@
       <c r="AA113" s="4"/>
       <c r="AB113" s="4"/>
     </row>
-    <row r="114" ht="12.75" customHeight="1">
+    <row r="114" spans="1:28" ht="12.75" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -3950,7 +3965,7 @@
       <c r="AA114" s="4"/>
       <c r="AB114" s="4"/>
     </row>
-    <row r="115" ht="12.75" customHeight="1">
+    <row r="115" spans="1:28" ht="12.75" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -3980,7 +3995,7 @@
       <c r="AA115" s="4"/>
       <c r="AB115" s="4"/>
     </row>
-    <row r="116" ht="12.75" customHeight="1">
+    <row r="116" spans="1:28" ht="12.75" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -4010,7 +4025,7 @@
       <c r="AA116" s="4"/>
       <c r="AB116" s="4"/>
     </row>
-    <row r="117" ht="12.75" customHeight="1">
+    <row r="117" spans="1:28" ht="12.75" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -4040,7 +4055,7 @@
       <c r="AA117" s="4"/>
       <c r="AB117" s="4"/>
     </row>
-    <row r="118" ht="12.75" customHeight="1">
+    <row r="118" spans="1:28" ht="12.75" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -4070,7 +4085,7 @@
       <c r="AA118" s="4"/>
       <c r="AB118" s="4"/>
     </row>
-    <row r="119" ht="12.75" customHeight="1">
+    <row r="119" spans="1:28" ht="12.75" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -4100,7 +4115,7 @@
       <c r="AA119" s="4"/>
       <c r="AB119" s="4"/>
     </row>
-    <row r="120" ht="12.75" customHeight="1">
+    <row r="120" spans="1:28" ht="12.75" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -4130,7 +4145,7 @@
       <c r="AA120" s="4"/>
       <c r="AB120" s="4"/>
     </row>
-    <row r="121" ht="12.75" customHeight="1">
+    <row r="121" spans="1:28" ht="12.75" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -4160,7 +4175,7 @@
       <c r="AA121" s="4"/>
       <c r="AB121" s="4"/>
     </row>
-    <row r="122" ht="12.75" customHeight="1">
+    <row r="122" spans="1:28" ht="12.75" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -4190,7 +4205,7 @@
       <c r="AA122" s="4"/>
       <c r="AB122" s="4"/>
     </row>
-    <row r="123" ht="12.75" customHeight="1">
+    <row r="123" spans="1:28" ht="12.75" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -4220,7 +4235,7 @@
       <c r="AA123" s="4"/>
       <c r="AB123" s="4"/>
     </row>
-    <row r="124" ht="12.75" customHeight="1">
+    <row r="124" spans="1:28" ht="12.75" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -4250,7 +4265,7 @@
       <c r="AA124" s="4"/>
       <c r="AB124" s="4"/>
     </row>
-    <row r="125" ht="12.75" customHeight="1">
+    <row r="125" spans="1:28" ht="12.75" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -4280,7 +4295,7 @@
       <c r="AA125" s="4"/>
       <c r="AB125" s="4"/>
     </row>
-    <row r="126" ht="12.75" customHeight="1">
+    <row r="126" spans="1:28" ht="12.75" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -4310,7 +4325,7 @@
       <c r="AA126" s="4"/>
       <c r="AB126" s="4"/>
     </row>
-    <row r="127" ht="12.75" customHeight="1">
+    <row r="127" spans="1:28" ht="12.75" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -4340,7 +4355,7 @@
       <c r="AA127" s="4"/>
       <c r="AB127" s="4"/>
     </row>
-    <row r="128" ht="12.75" customHeight="1">
+    <row r="128" spans="1:28" ht="12.75" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -4370,7 +4385,7 @@
       <c r="AA128" s="4"/>
       <c r="AB128" s="4"/>
     </row>
-    <row r="129" ht="12.75" customHeight="1">
+    <row r="129" spans="1:28" ht="12.75" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -4400,7 +4415,7 @@
       <c r="AA129" s="4"/>
       <c r="AB129" s="4"/>
     </row>
-    <row r="130" ht="12.75" customHeight="1">
+    <row r="130" spans="1:28" ht="12.75" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -4430,7 +4445,7 @@
       <c r="AA130" s="4"/>
       <c r="AB130" s="4"/>
     </row>
-    <row r="131" ht="12.75" customHeight="1">
+    <row r="131" spans="1:28" ht="12.75" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -4460,7 +4475,7 @@
       <c r="AA131" s="4"/>
       <c r="AB131" s="4"/>
     </row>
-    <row r="132" ht="12.75" customHeight="1">
+    <row r="132" spans="1:28" ht="12.75" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -4490,7 +4505,7 @@
       <c r="AA132" s="4"/>
       <c r="AB132" s="4"/>
     </row>
-    <row r="133" ht="12.75" customHeight="1">
+    <row r="133" spans="1:28" ht="12.75" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -4520,7 +4535,7 @@
       <c r="AA133" s="4"/>
       <c r="AB133" s="4"/>
     </row>
-    <row r="134" ht="12.75" customHeight="1">
+    <row r="134" spans="1:28" ht="12.75" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -4550,7 +4565,7 @@
       <c r="AA134" s="4"/>
       <c r="AB134" s="4"/>
     </row>
-    <row r="135" ht="12.75" customHeight="1">
+    <row r="135" spans="1:28" ht="12.75" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -4580,7 +4595,7 @@
       <c r="AA135" s="4"/>
       <c r="AB135" s="4"/>
     </row>
-    <row r="136" ht="12.75" customHeight="1">
+    <row r="136" spans="1:28" ht="12.75" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -4610,7 +4625,7 @@
       <c r="AA136" s="4"/>
       <c r="AB136" s="4"/>
     </row>
-    <row r="137" ht="12.75" customHeight="1">
+    <row r="137" spans="1:28" ht="12.75" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -4640,7 +4655,7 @@
       <c r="AA137" s="4"/>
       <c r="AB137" s="4"/>
     </row>
-    <row r="138" ht="12.75" customHeight="1">
+    <row r="138" spans="1:28" ht="12.75" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -4670,7 +4685,7 @@
       <c r="AA138" s="4"/>
       <c r="AB138" s="4"/>
     </row>
-    <row r="139" ht="12.75" customHeight="1">
+    <row r="139" spans="1:28" ht="12.75" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -4700,7 +4715,7 @@
       <c r="AA139" s="4"/>
       <c r="AB139" s="4"/>
     </row>
-    <row r="140" ht="12.75" customHeight="1">
+    <row r="140" spans="1:28" ht="12.75" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -4730,7 +4745,7 @@
       <c r="AA140" s="4"/>
       <c r="AB140" s="4"/>
     </row>
-    <row r="141" ht="12.75" customHeight="1">
+    <row r="141" spans="1:28" ht="12.75" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -4760,7 +4775,7 @@
       <c r="AA141" s="4"/>
       <c r="AB141" s="4"/>
     </row>
-    <row r="142" ht="12.75" customHeight="1">
+    <row r="142" spans="1:28" ht="12.75" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -4790,7 +4805,7 @@
       <c r="AA142" s="4"/>
       <c r="AB142" s="4"/>
     </row>
-    <row r="143" ht="12.75" customHeight="1">
+    <row r="143" spans="1:28" ht="12.75" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -4820,7 +4835,7 @@
       <c r="AA143" s="4"/>
       <c r="AB143" s="4"/>
     </row>
-    <row r="144" ht="12.75" customHeight="1">
+    <row r="144" spans="1:28" ht="12.75" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -4850,7 +4865,7 @@
       <c r="AA144" s="4"/>
       <c r="AB144" s="4"/>
     </row>
-    <row r="145" ht="12.75" customHeight="1">
+    <row r="145" spans="1:28" ht="12.75" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -4880,7 +4895,7 @@
       <c r="AA145" s="4"/>
       <c r="AB145" s="4"/>
     </row>
-    <row r="146" ht="12.75" customHeight="1">
+    <row r="146" spans="1:28" ht="12.75" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -4910,7 +4925,7 @@
       <c r="AA146" s="4"/>
       <c r="AB146" s="4"/>
     </row>
-    <row r="147" ht="12.75" customHeight="1">
+    <row r="147" spans="1:28" ht="12.75" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -4940,7 +4955,7 @@
       <c r="AA147" s="4"/>
       <c r="AB147" s="4"/>
     </row>
-    <row r="148" ht="12.75" customHeight="1">
+    <row r="148" spans="1:28" ht="12.75" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -4970,7 +4985,7 @@
       <c r="AA148" s="4"/>
       <c r="AB148" s="4"/>
     </row>
-    <row r="149" ht="12.75" customHeight="1">
+    <row r="149" spans="1:28" ht="12.75" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -5000,7 +5015,7 @@
       <c r="AA149" s="4"/>
       <c r="AB149" s="4"/>
     </row>
-    <row r="150" ht="12.75" customHeight="1">
+    <row r="150" spans="1:28" ht="12.75" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -5030,7 +5045,7 @@
       <c r="AA150" s="4"/>
       <c r="AB150" s="4"/>
     </row>
-    <row r="151" ht="12.75" customHeight="1">
+    <row r="151" spans="1:28" ht="12.75" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -5060,7 +5075,7 @@
       <c r="AA151" s="4"/>
       <c r="AB151" s="4"/>
     </row>
-    <row r="152" ht="12.75" customHeight="1">
+    <row r="152" spans="1:28" ht="12.75" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -5090,7 +5105,7 @@
       <c r="AA152" s="4"/>
       <c r="AB152" s="4"/>
     </row>
-    <row r="153" ht="12.75" customHeight="1">
+    <row r="153" spans="1:28" ht="12.75" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -5120,7 +5135,7 @@
       <c r="AA153" s="4"/>
       <c r="AB153" s="4"/>
     </row>
-    <row r="154" ht="12.75" customHeight="1">
+    <row r="154" spans="1:28" ht="12.75" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -5150,7 +5165,7 @@
       <c r="AA154" s="4"/>
       <c r="AB154" s="4"/>
     </row>
-    <row r="155" ht="12.75" customHeight="1">
+    <row r="155" spans="1:28" ht="12.75" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -5180,7 +5195,7 @@
       <c r="AA155" s="4"/>
       <c r="AB155" s="4"/>
     </row>
-    <row r="156" ht="12.75" customHeight="1">
+    <row r="156" spans="1:28" ht="12.75" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -5210,7 +5225,7 @@
       <c r="AA156" s="4"/>
       <c r="AB156" s="4"/>
     </row>
-    <row r="157" ht="12.75" customHeight="1">
+    <row r="157" spans="1:28" ht="12.75" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -5240,7 +5255,7 @@
       <c r="AA157" s="4"/>
       <c r="AB157" s="4"/>
     </row>
-    <row r="158" ht="12.75" customHeight="1">
+    <row r="158" spans="1:28" ht="12.75" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -5270,7 +5285,7 @@
       <c r="AA158" s="4"/>
       <c r="AB158" s="4"/>
     </row>
-    <row r="159" ht="12.75" customHeight="1">
+    <row r="159" spans="1:28" ht="12.75" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -5300,7 +5315,7 @@
       <c r="AA159" s="4"/>
       <c r="AB159" s="4"/>
     </row>
-    <row r="160" ht="12.75" customHeight="1">
+    <row r="160" spans="1:28" ht="12.75" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -5330,7 +5345,7 @@
       <c r="AA160" s="4"/>
       <c r="AB160" s="4"/>
     </row>
-    <row r="161" ht="12.75" customHeight="1">
+    <row r="161" spans="1:28" ht="12.75" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -5360,7 +5375,7 @@
       <c r="AA161" s="4"/>
       <c r="AB161" s="4"/>
     </row>
-    <row r="162" ht="12.75" customHeight="1">
+    <row r="162" spans="1:28" ht="12.75" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -5390,7 +5405,7 @@
       <c r="AA162" s="4"/>
       <c r="AB162" s="4"/>
     </row>
-    <row r="163" ht="12.75" customHeight="1">
+    <row r="163" spans="1:28" ht="12.75" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -5420,7 +5435,7 @@
       <c r="AA163" s="4"/>
       <c r="AB163" s="4"/>
     </row>
-    <row r="164" ht="12.75" customHeight="1">
+    <row r="164" spans="1:28" ht="12.75" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -5450,7 +5465,7 @@
       <c r="AA164" s="4"/>
       <c r="AB164" s="4"/>
     </row>
-    <row r="165" ht="12.75" customHeight="1">
+    <row r="165" spans="1:28" ht="12.75" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -5480,7 +5495,7 @@
       <c r="AA165" s="4"/>
       <c r="AB165" s="4"/>
     </row>
-    <row r="166" ht="12.75" customHeight="1">
+    <row r="166" spans="1:28" ht="12.75" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -5510,7 +5525,7 @@
       <c r="AA166" s="4"/>
       <c r="AB166" s="4"/>
     </row>
-    <row r="167" ht="12.75" customHeight="1">
+    <row r="167" spans="1:28" ht="12.75" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -5540,7 +5555,7 @@
       <c r="AA167" s="4"/>
       <c r="AB167" s="4"/>
     </row>
-    <row r="168" ht="12.75" customHeight="1">
+    <row r="168" spans="1:28" ht="12.75" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -5570,7 +5585,7 @@
       <c r="AA168" s="4"/>
       <c r="AB168" s="4"/>
     </row>
-    <row r="169" ht="12.75" customHeight="1">
+    <row r="169" spans="1:28" ht="12.75" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -5600,7 +5615,7 @@
       <c r="AA169" s="4"/>
       <c r="AB169" s="4"/>
     </row>
-    <row r="170" ht="12.75" customHeight="1">
+    <row r="170" spans="1:28" ht="12.75" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -5630,7 +5645,7 @@
       <c r="AA170" s="4"/>
       <c r="AB170" s="4"/>
     </row>
-    <row r="171" ht="12.75" customHeight="1">
+    <row r="171" spans="1:28" ht="12.75" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -5660,7 +5675,7 @@
       <c r="AA171" s="4"/>
       <c r="AB171" s="4"/>
     </row>
-    <row r="172" ht="12.75" customHeight="1">
+    <row r="172" spans="1:28" ht="12.75" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -5690,7 +5705,7 @@
       <c r="AA172" s="4"/>
       <c r="AB172" s="4"/>
     </row>
-    <row r="173" ht="12.75" customHeight="1">
+    <row r="173" spans="1:28" ht="12.75" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -5720,7 +5735,7 @@
       <c r="AA173" s="4"/>
       <c r="AB173" s="4"/>
     </row>
-    <row r="174" ht="12.75" customHeight="1">
+    <row r="174" spans="1:28" ht="12.75" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -5750,7 +5765,7 @@
       <c r="AA174" s="4"/>
       <c r="AB174" s="4"/>
     </row>
-    <row r="175" ht="12.75" customHeight="1">
+    <row r="175" spans="1:28" ht="12.75" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -5780,7 +5795,7 @@
       <c r="AA175" s="4"/>
       <c r="AB175" s="4"/>
     </row>
-    <row r="176" ht="12.75" customHeight="1">
+    <row r="176" spans="1:28" ht="12.75" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -5810,7 +5825,7 @@
       <c r="AA176" s="4"/>
       <c r="AB176" s="4"/>
     </row>
-    <row r="177" ht="12.75" customHeight="1">
+    <row r="177" spans="1:28" ht="12.75" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -5840,7 +5855,7 @@
       <c r="AA177" s="4"/>
       <c r="AB177" s="4"/>
     </row>
-    <row r="178" ht="12.75" customHeight="1">
+    <row r="178" spans="1:28" ht="12.75" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -5870,7 +5885,7 @@
       <c r="AA178" s="4"/>
       <c r="AB178" s="4"/>
     </row>
-    <row r="179" ht="12.75" customHeight="1">
+    <row r="179" spans="1:28" ht="12.75" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -5900,7 +5915,7 @@
       <c r="AA179" s="4"/>
       <c r="AB179" s="4"/>
     </row>
-    <row r="180" ht="12.75" customHeight="1">
+    <row r="180" spans="1:28" ht="12.75" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -5930,7 +5945,7 @@
       <c r="AA180" s="4"/>
       <c r="AB180" s="4"/>
     </row>
-    <row r="181" ht="12.75" customHeight="1">
+    <row r="181" spans="1:28" ht="12.75" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -5960,7 +5975,7 @@
       <c r="AA181" s="4"/>
       <c r="AB181" s="4"/>
     </row>
-    <row r="182" ht="12.75" customHeight="1">
+    <row r="182" spans="1:28" ht="12.75" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -5990,7 +6005,7 @@
       <c r="AA182" s="4"/>
       <c r="AB182" s="4"/>
     </row>
-    <row r="183" ht="12.75" customHeight="1">
+    <row r="183" spans="1:28" ht="12.75" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -6020,7 +6035,7 @@
       <c r="AA183" s="4"/>
       <c r="AB183" s="4"/>
     </row>
-    <row r="184" ht="12.75" customHeight="1">
+    <row r="184" spans="1:28" ht="12.75" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -6050,7 +6065,7 @@
       <c r="AA184" s="4"/>
       <c r="AB184" s="4"/>
     </row>
-    <row r="185" ht="12.75" customHeight="1">
+    <row r="185" spans="1:28" ht="12.75" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -6080,7 +6095,7 @@
       <c r="AA185" s="4"/>
       <c r="AB185" s="4"/>
     </row>
-    <row r="186" ht="12.75" customHeight="1">
+    <row r="186" spans="1:28" ht="12.75" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -6110,7 +6125,7 @@
       <c r="AA186" s="4"/>
       <c r="AB186" s="4"/>
     </row>
-    <row r="187" ht="12.75" customHeight="1">
+    <row r="187" spans="1:28" ht="12.75" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -6140,7 +6155,7 @@
       <c r="AA187" s="4"/>
       <c r="AB187" s="4"/>
     </row>
-    <row r="188" ht="12.75" customHeight="1">
+    <row r="188" spans="1:28" ht="12.75" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -6170,7 +6185,7 @@
       <c r="AA188" s="4"/>
       <c r="AB188" s="4"/>
     </row>
-    <row r="189" ht="12.75" customHeight="1">
+    <row r="189" spans="1:28" ht="12.75" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -6200,7 +6215,7 @@
       <c r="AA189" s="4"/>
       <c r="AB189" s="4"/>
     </row>
-    <row r="190" ht="12.75" customHeight="1">
+    <row r="190" spans="1:28" ht="12.75" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -6230,7 +6245,7 @@
       <c r="AA190" s="4"/>
       <c r="AB190" s="4"/>
     </row>
-    <row r="191" ht="12.75" customHeight="1">
+    <row r="191" spans="1:28" ht="12.75" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -6260,7 +6275,7 @@
       <c r="AA191" s="4"/>
       <c r="AB191" s="4"/>
     </row>
-    <row r="192" ht="12.75" customHeight="1">
+    <row r="192" spans="1:28" ht="12.75" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -6290,7 +6305,7 @@
       <c r="AA192" s="4"/>
       <c r="AB192" s="4"/>
     </row>
-    <row r="193" ht="12.75" customHeight="1">
+    <row r="193" spans="1:28" ht="12.75" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -6320,7 +6335,7 @@
       <c r="AA193" s="4"/>
       <c r="AB193" s="4"/>
     </row>
-    <row r="194" ht="12.75" customHeight="1">
+    <row r="194" spans="1:28" ht="12.75" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -6350,7 +6365,7 @@
       <c r="AA194" s="4"/>
       <c r="AB194" s="4"/>
     </row>
-    <row r="195" ht="12.75" customHeight="1">
+    <row r="195" spans="1:28" ht="12.75" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -6380,7 +6395,7 @@
       <c r="AA195" s="4"/>
       <c r="AB195" s="4"/>
     </row>
-    <row r="196" ht="12.75" customHeight="1">
+    <row r="196" spans="1:28" ht="12.75" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -6410,7 +6425,7 @@
       <c r="AA196" s="4"/>
       <c r="AB196" s="4"/>
     </row>
-    <row r="197" ht="12.75" customHeight="1">
+    <row r="197" spans="1:28" ht="12.75" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -6440,7 +6455,7 @@
       <c r="AA197" s="4"/>
       <c r="AB197" s="4"/>
     </row>
-    <row r="198" ht="12.75" customHeight="1">
+    <row r="198" spans="1:28" ht="12.75" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -6470,7 +6485,7 @@
       <c r="AA198" s="4"/>
       <c r="AB198" s="4"/>
     </row>
-    <row r="199" ht="12.75" customHeight="1">
+    <row r="199" spans="1:28" ht="12.75" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -6500,7 +6515,7 @@
       <c r="AA199" s="4"/>
       <c r="AB199" s="4"/>
     </row>
-    <row r="200" ht="12.75" customHeight="1">
+    <row r="200" spans="1:28" ht="12.75" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -6530,7 +6545,7 @@
       <c r="AA200" s="4"/>
       <c r="AB200" s="4"/>
     </row>
-    <row r="201" ht="12.75" customHeight="1">
+    <row r="201" spans="1:28" ht="12.75" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -6560,7 +6575,7 @@
       <c r="AA201" s="4"/>
       <c r="AB201" s="4"/>
     </row>
-    <row r="202" ht="12.75" customHeight="1">
+    <row r="202" spans="1:28" ht="12.75" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -6590,7 +6605,7 @@
       <c r="AA202" s="4"/>
       <c r="AB202" s="4"/>
     </row>
-    <row r="203" ht="12.75" customHeight="1">
+    <row r="203" spans="1:28" ht="12.75" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -6620,7 +6635,7 @@
       <c r="AA203" s="4"/>
       <c r="AB203" s="4"/>
     </row>
-    <row r="204" ht="12.75" customHeight="1">
+    <row r="204" spans="1:28" ht="12.75" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -6650,7 +6665,7 @@
       <c r="AA204" s="4"/>
       <c r="AB204" s="4"/>
     </row>
-    <row r="205" ht="12.75" customHeight="1">
+    <row r="205" spans="1:28" ht="12.75" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -6680,7 +6695,7 @@
       <c r="AA205" s="4"/>
       <c r="AB205" s="4"/>
     </row>
-    <row r="206" ht="12.75" customHeight="1">
+    <row r="206" spans="1:28" ht="12.75" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -6710,7 +6725,7 @@
       <c r="AA206" s="4"/>
       <c r="AB206" s="4"/>
     </row>
-    <row r="207" ht="12.75" customHeight="1">
+    <row r="207" spans="1:28" ht="12.75" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -6740,7 +6755,7 @@
       <c r="AA207" s="4"/>
       <c r="AB207" s="4"/>
     </row>
-    <row r="208" ht="12.75" customHeight="1">
+    <row r="208" spans="1:28" ht="12.75" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -6770,7 +6785,7 @@
       <c r="AA208" s="4"/>
       <c r="AB208" s="4"/>
     </row>
-    <row r="209" ht="12.75" customHeight="1">
+    <row r="209" spans="1:28" ht="12.75" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -6800,7 +6815,7 @@
       <c r="AA209" s="4"/>
       <c r="AB209" s="4"/>
     </row>
-    <row r="210" ht="12.75" customHeight="1">
+    <row r="210" spans="1:28" ht="12.75" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -6830,7 +6845,7 @@
       <c r="AA210" s="4"/>
       <c r="AB210" s="4"/>
     </row>
-    <row r="211" ht="12.75" customHeight="1">
+    <row r="211" spans="1:28" ht="12.75" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -6860,7 +6875,7 @@
       <c r="AA211" s="4"/>
       <c r="AB211" s="4"/>
     </row>
-    <row r="212" ht="12.75" customHeight="1">
+    <row r="212" spans="1:28" ht="12.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -6890,7 +6905,7 @@
       <c r="AA212" s="4"/>
       <c r="AB212" s="4"/>
     </row>
-    <row r="213" ht="12.75" customHeight="1">
+    <row r="213" spans="1:28" ht="12.75" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -6920,7 +6935,7 @@
       <c r="AA213" s="4"/>
       <c r="AB213" s="4"/>
     </row>
-    <row r="214" ht="12.75" customHeight="1">
+    <row r="214" spans="1:28" ht="12.75" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -6950,7 +6965,7 @@
       <c r="AA214" s="4"/>
       <c r="AB214" s="4"/>
     </row>
-    <row r="215" ht="12.75" customHeight="1">
+    <row r="215" spans="1:28" ht="12.75" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -6980,7 +6995,7 @@
       <c r="AA215" s="4"/>
       <c r="AB215" s="4"/>
     </row>
-    <row r="216" ht="12.75" customHeight="1">
+    <row r="216" spans="1:28" ht="12.75" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -7010,7 +7025,7 @@
       <c r="AA216" s="4"/>
       <c r="AB216" s="4"/>
     </row>
-    <row r="217" ht="12.75" customHeight="1">
+    <row r="217" spans="1:28" ht="12.75" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -7040,7 +7055,7 @@
       <c r="AA217" s="4"/>
       <c r="AB217" s="4"/>
     </row>
-    <row r="218" ht="12.75" customHeight="1">
+    <row r="218" spans="1:28" ht="12.75" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -7070,7 +7085,7 @@
       <c r="AA218" s="4"/>
       <c r="AB218" s="4"/>
     </row>
-    <row r="219" ht="12.75" customHeight="1">
+    <row r="219" spans="1:28" ht="12.75" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -7100,7 +7115,7 @@
       <c r="AA219" s="4"/>
       <c r="AB219" s="4"/>
     </row>
-    <row r="220" ht="12.75" customHeight="1">
+    <row r="220" spans="1:28" ht="12.75" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -7130,10 +7145,10 @@
       <c r="AA220" s="4"/>
       <c r="AB220" s="4"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:28" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:28" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:28" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:28" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -7911,8 +7926,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
